--- a/設計書テンプレート/要件定義テンプレート.xlsx
+++ b/設計書テンプレート/要件定義テンプレート.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="１．企画書" sheetId="1" state="visible" r:id="rId2"/>
@@ -218,7 +218,7 @@
     <t xml:space="preserve">原因</t>
   </si>
   <si>
-    <t xml:space="preserve">理由</t>
+    <t xml:space="preserve">対処方法</t>
   </si>
   <si>
     <t xml:space="preserve">機能の内容</t>
@@ -255,7 +255,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <name val="ヒラギノ角ゴシック"/>
@@ -288,14 +288,12 @@
       <b val="true"/>
       <sz val="16"/>
       <name val="ヒラギノ角ゴシック"/>
-      <family val="2"/>
-      <charset val="1"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="ヒラギノ角ゴシック"/>
-      <family val="2"/>
-      <charset val="1"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="10.5"/>
@@ -306,6 +304,18 @@
       <sz val="12"/>
       <name val="ヒラギノ明朝 ProN"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="ヒラギノ角ゴシック"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="ヒラギノ丸ゴ ProN"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="9">
@@ -697,6 +707,10 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -713,32 +727,32 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -878,11 +892,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -968,9 +978,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>87840</xdr:colOff>
+      <xdr:colOff>87480</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>7560</xdr:rowOff>
+      <xdr:rowOff>7200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -980,7 +990,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="746280"/>
-          <a:ext cx="1723320" cy="886680"/>
+          <a:ext cx="1728000" cy="886320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1005,7 +1015,11 @@
           <a:noAutofit/>
         </a:bodyPr>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
             <a:rPr b="1" lang="ja-JP" sz="1600" spc="-1" strike="noStrike">
               <a:latin typeface="Times New Roman"/>
@@ -1013,9 +1027,8 @@
             </a:rPr>
             <a:t>システム名</a:t>
           </a:r>
-          <a:endParaRPr b="1" lang="en-US" sz="1600" spc="-1" strike="noStrike">
+          <a:endParaRPr b="0" lang="en-US" sz="1600" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
-            <a:ea typeface="ヒラギノ角ゴシック"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -1031,9 +1044,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>183240</xdr:colOff>
+      <xdr:colOff>182880</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>22320</xdr:rowOff>
+      <xdr:rowOff>21960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1042,8 +1055,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1884600" y="0"/>
-          <a:ext cx="1161000" cy="509760"/>
+          <a:off x="1890360" y="0"/>
+          <a:ext cx="1163880" cy="509400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1068,7 +1081,11 @@
           <a:noAutofit/>
         </a:bodyPr>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
             <a:rPr b="0" lang="ja-JP" sz="1200" spc="-1" strike="noStrike">
               <a:latin typeface="Times New Roman"/>
@@ -1078,7 +1095,6 @@
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
-            <a:ea typeface="ヒラギノ角ゴシック"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -1105,8 +1121,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="1738080" y="473040"/>
-          <a:ext cx="423360" cy="480240"/>
+          <a:off x="1743120" y="473040"/>
+          <a:ext cx="424800" cy="480240"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1135,9 +1151,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>204840</xdr:colOff>
+      <xdr:colOff>204480</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>52200</xdr:rowOff>
+      <xdr:rowOff>51840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1146,8 +1162,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3593160" y="1441080"/>
-          <a:ext cx="1723320" cy="886680"/>
+          <a:off x="3603960" y="1441080"/>
+          <a:ext cx="1728000" cy="886320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1172,7 +1188,11 @@
           <a:noAutofit/>
         </a:bodyPr>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
             <a:rPr b="1" lang="ja-JP" sz="1600" spc="-1" strike="noStrike">
               <a:latin typeface="Times New Roman"/>
@@ -1180,13 +1200,16 @@
             </a:rPr>
             <a:t>連携する</a:t>
           </a:r>
-          <a:endParaRPr b="1" lang="en-US" sz="1600" spc="-1" strike="noStrike">
+          <a:endParaRPr b="0" lang="en-US" sz="1600" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
-            <a:ea typeface="ヒラギノ角ゴシック"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
             <a:rPr b="1" lang="ja-JP" sz="1600" spc="-1" strike="noStrike">
               <a:latin typeface="Times New Roman"/>
@@ -1194,9 +1217,8 @@
             </a:rPr>
             <a:t>システム名</a:t>
           </a:r>
-          <a:endParaRPr b="1" lang="en-US" sz="1600" spc="-1" strike="noStrike">
+          <a:endParaRPr b="0" lang="en-US" sz="1600" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
-            <a:ea typeface="ヒラギノ角ゴシック"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -1223,8 +1245,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="1730880" y="1197000"/>
-          <a:ext cx="1796400" cy="568800"/>
+          <a:off x="1735920" y="1197000"/>
+          <a:ext cx="1802160" cy="568800"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1253,9 +1275,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>21960</xdr:colOff>
+      <xdr:colOff>21600</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>162720</xdr:rowOff>
+      <xdr:rowOff>162360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1264,8 +1286,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3600000" y="384120"/>
-          <a:ext cx="1738080" cy="591120"/>
+          <a:off x="3610800" y="384120"/>
+          <a:ext cx="1743480" cy="590760"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -1294,6 +1316,11 @@
           <a:noAutofit/>
         </a:bodyPr>
         <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
             <a:rPr b="0" lang="ja-JP" sz="1050" spc="-1" strike="noStrike">
               <a:latin typeface="Times New Roman"/>
@@ -1305,6 +1332,11 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
             <a:rPr b="0" lang="ja-JP" sz="1050" spc="-1" strike="noStrike">
               <a:latin typeface="Times New Roman"/>
@@ -1328,14 +1360,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>31680</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>155520</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>82800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>148680</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>82800</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>51840</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>78840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1344,8 +1376,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000">
-          <a:off x="1215720" y="194040"/>
-          <a:ext cx="644760" cy="902880"/>
+          <a:off x="962640" y="1096560"/>
+          <a:ext cx="902520" cy="646200"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartOffpageConnector">
           <a:avLst/>
@@ -1367,11 +1399,15 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr wrap="none" lIns="18000" rIns="18000" tIns="18000" bIns="18000" anchor="t" anchorCtr="1" vert="eaVert">
+        <a:bodyPr wrap="none" lIns="18000" rIns="18000" tIns="18000" bIns="18000" anchorCtr="1" vert="vert" rot="5400000">
           <a:noAutofit/>
         </a:bodyPr>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
             <a:rPr b="0" lang="ja-JP" sz="1200" spc="-1" strike="noStrike">
               <a:latin typeface="Times New Roman"/>
@@ -1390,14 +1426,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>165960</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>10080</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>100080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>106920</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>100080</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9360</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>96480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1406,8 +1442,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000">
-          <a:off x="822240" y="1511640"/>
-          <a:ext cx="644760" cy="902880"/>
+          <a:off x="567360" y="2413800"/>
+          <a:ext cx="902520" cy="646560"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartOffpageConnector">
           <a:avLst/>
@@ -1429,11 +1465,15 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr wrap="none" lIns="18000" rIns="18000" tIns="18000" bIns="18000" anchor="t" anchorCtr="1" vert="eaVert">
+        <a:bodyPr wrap="none" lIns="18000" rIns="18000" tIns="18000" bIns="18000" anchorCtr="1" vert="vert" rot="5400000">
           <a:noAutofit/>
         </a:bodyPr>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
             <a:rPr b="0" lang="ja-JP" sz="1200" spc="-1" strike="noStrike">
               <a:latin typeface="Times New Roman"/>
@@ -1468,8 +1508,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="696240" y="975240"/>
-          <a:ext cx="393840" cy="657720"/>
+          <a:off x="698400" y="975240"/>
+          <a:ext cx="395640" cy="657720"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1510,8 +1550,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1799640" y="982800"/>
-          <a:ext cx="509040" cy="642960"/>
+          <a:off x="1806120" y="982800"/>
+          <a:ext cx="510840" cy="642960"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1536,14 +1576,14 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>22320</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>10080</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>100080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>139320</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>100080</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>42120</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>96120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1552,8 +1592,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000">
-          <a:off x="1734120" y="1511640"/>
-          <a:ext cx="644760" cy="902880"/>
+          <a:off x="1482840" y="2414160"/>
+          <a:ext cx="902520" cy="646200"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartOffpageConnector">
           <a:avLst/>
@@ -1575,11 +1615,15 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr wrap="none" lIns="18000" rIns="18000" tIns="18000" bIns="18000" anchor="t" anchorCtr="1" vert="eaVert">
+        <a:bodyPr wrap="none" lIns="18000" rIns="18000" tIns="18000" bIns="18000" anchorCtr="1" vert="vert" rot="5400000">
           <a:noAutofit/>
         </a:bodyPr>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
             <a:rPr b="0" lang="ja-JP" sz="1200" spc="-1" strike="noStrike">
               <a:latin typeface="Times New Roman"/>
@@ -1608,19 +1652,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>70560</xdr:colOff>
+      <xdr:colOff>70200</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>149040</xdr:rowOff>
+      <xdr:rowOff>148680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="TextShape 1"/>
-        <xdr:cNvSpPr txBox="1"/>
+        <xdr:cNvPr id="11" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="345960" y="317880"/>
-          <a:ext cx="1307520" cy="481320"/>
+          <a:off x="346680" y="317880"/>
+          <a:ext cx="1312200" cy="480960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1634,20 +1678,32 @@
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
       <xdr:txBody>
-        <a:bodyPr lIns="-18000" rIns="-18000" tIns="-18000" bIns="-18000" anchor="ctr">
+        <a:bodyPr lIns="-17640" rIns="-17640" tIns="-17640" bIns="-17640" anchor="ctr">
           <a:noAutofit/>
         </a:bodyPr>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
             <a:rPr b="0" lang="ja-JP" sz="1200" spc="-1" strike="noStrike">
               <a:latin typeface="Times New Roman"/>
+              <a:ea typeface="ヒラギノ角ゴシック"/>
             </a:rPr>
             <a:t>エンティティ１</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
+            <a:ea typeface="ヒラギノ角ゴシック"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -1663,19 +1719,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>75240</xdr:colOff>
+      <xdr:colOff>74880</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>149040</xdr:rowOff>
+      <xdr:rowOff>148680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="TextShape 1"/>
-        <xdr:cNvSpPr txBox="1"/>
+        <xdr:cNvPr id="12" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1581840" y="1130760"/>
-          <a:ext cx="1307520" cy="481320"/>
+          <a:off x="1586880" y="1130760"/>
+          <a:ext cx="1312200" cy="480960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1689,20 +1745,32 @@
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
       <xdr:txBody>
-        <a:bodyPr lIns="-18000" rIns="-18000" tIns="-18000" bIns="-18000" anchor="ctr">
+        <a:bodyPr lIns="-17640" rIns="-17640" tIns="-17640" bIns="-17640" anchor="ctr">
           <a:noAutofit/>
         </a:bodyPr>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
             <a:rPr b="0" lang="ja-JP" sz="1200" spc="-1" strike="noStrike">
               <a:latin typeface="Times New Roman"/>
+              <a:ea typeface="ヒラギノ丸ゴ ProN"/>
             </a:rPr>
             <a:t>エンティティ２</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
+            <a:ea typeface="ヒラギノ丸ゴ ProN"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -1729,8 +1797,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="1047960" y="805320"/>
-          <a:ext cx="556920" cy="517320"/>
+          <a:off x="1051200" y="805320"/>
+          <a:ext cx="559440" cy="517320"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1776,7 +1844,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="813600" y="2106000"/>
+          <a:off x="816120" y="2106000"/>
           <a:ext cx="0" cy="982800"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1823,8 +1891,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1645920" y="1300320"/>
-          <a:ext cx="1104480" cy="0"/>
+          <a:off x="1651320" y="1300320"/>
+          <a:ext cx="1108440" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1859,11 +1927,11 @@
   </sheetPr>
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.71484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="58.39"/>
@@ -1940,378 +2008,378 @@
       <selection pane="topLeft" activeCell="X16" activeCellId="0" sqref="X16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.1015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="2.109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="35"/>
-      <c r="K3" s="36" t="s">
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="36"/>
+      <c r="K3" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="37"/>
-      <c r="S3" s="37"/>
-      <c r="T3" s="37"/>
-      <c r="U3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="38"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="39"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="39"/>
-      <c r="I4" s="40"/>
-      <c r="K4" s="39"/>
-      <c r="U4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="I4" s="41"/>
+      <c r="K4" s="40"/>
+      <c r="U4" s="41"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="39"/>
-      <c r="I5" s="40"/>
-      <c r="K5" s="39"/>
-      <c r="U5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="I5" s="41"/>
+      <c r="K5" s="40"/>
+      <c r="U5" s="41"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="39"/>
+      <c r="C6" s="40"/>
       <c r="D6" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="I6" s="40"/>
-      <c r="K6" s="36" t="s">
+      <c r="I6" s="41"/>
+      <c r="K6" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="L6" s="37"/>
-      <c r="M6" s="37"/>
-      <c r="N6" s="37"/>
-      <c r="O6" s="37"/>
-      <c r="P6" s="37"/>
-      <c r="Q6" s="37"/>
-      <c r="R6" s="37"/>
-      <c r="S6" s="37"/>
-      <c r="T6" s="37"/>
-      <c r="U6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="38"/>
+      <c r="R6" s="38"/>
+      <c r="S6" s="38"/>
+      <c r="T6" s="38"/>
+      <c r="U6" s="39"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="39"/>
-      <c r="I7" s="40"/>
-      <c r="K7" s="39"/>
-      <c r="U7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="I7" s="41"/>
+      <c r="K7" s="40"/>
+      <c r="U7" s="41"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="39"/>
-      <c r="I8" s="40"/>
-      <c r="K8" s="39"/>
-      <c r="U8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="I8" s="41"/>
+      <c r="K8" s="40"/>
+      <c r="U8" s="41"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="39"/>
-      <c r="I9" s="40"/>
-      <c r="K9" s="39"/>
-      <c r="U9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="I9" s="41"/>
+      <c r="K9" s="40"/>
+      <c r="U9" s="41"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="39"/>
-      <c r="I10" s="40"/>
-      <c r="K10" s="41"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="42"/>
-      <c r="N10" s="42"/>
-      <c r="O10" s="42"/>
-      <c r="P10" s="42"/>
-      <c r="Q10" s="42"/>
-      <c r="R10" s="42"/>
-      <c r="S10" s="42"/>
-      <c r="T10" s="42"/>
-      <c r="U10" s="43"/>
+      <c r="C10" s="40"/>
+      <c r="I10" s="41"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="43"/>
+      <c r="N10" s="43"/>
+      <c r="O10" s="43"/>
+      <c r="P10" s="43"/>
+      <c r="Q10" s="43"/>
+      <c r="R10" s="43"/>
+      <c r="S10" s="43"/>
+      <c r="T10" s="43"/>
+      <c r="U10" s="44"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="39"/>
-      <c r="I11" s="40"/>
-      <c r="K11" s="44" t="s">
+      <c r="C11" s="40"/>
+      <c r="I11" s="41"/>
+      <c r="K11" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="L11" s="45"/>
-      <c r="M11" s="45"/>
-      <c r="N11" s="45"/>
-      <c r="O11" s="45"/>
-      <c r="P11" s="45"/>
-      <c r="Q11" s="45"/>
-      <c r="R11" s="45"/>
-      <c r="S11" s="45"/>
-      <c r="T11" s="45"/>
-      <c r="U11" s="46"/>
-      <c r="Z11" s="47" t="s">
+      <c r="L11" s="46"/>
+      <c r="M11" s="46"/>
+      <c r="N11" s="46"/>
+      <c r="O11" s="46"/>
+      <c r="P11" s="46"/>
+      <c r="Q11" s="46"/>
+      <c r="R11" s="46"/>
+      <c r="S11" s="46"/>
+      <c r="T11" s="46"/>
+      <c r="U11" s="47"/>
+      <c r="Z11" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="AA11" s="48"/>
-      <c r="AB11" s="48"/>
-      <c r="AC11" s="48"/>
-      <c r="AD11" s="48"/>
-      <c r="AE11" s="48"/>
-      <c r="AF11" s="48"/>
-      <c r="AG11" s="48"/>
-      <c r="AH11" s="49"/>
+      <c r="AA11" s="49"/>
+      <c r="AB11" s="49"/>
+      <c r="AC11" s="49"/>
+      <c r="AD11" s="49"/>
+      <c r="AE11" s="49"/>
+      <c r="AF11" s="49"/>
+      <c r="AG11" s="49"/>
+      <c r="AH11" s="50"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="39"/>
-      <c r="I12" s="40"/>
-      <c r="K12" s="39"/>
-      <c r="U12" s="40"/>
-      <c r="Z12" s="50" t="s">
+      <c r="C12" s="40"/>
+      <c r="I12" s="41"/>
+      <c r="K12" s="40"/>
+      <c r="U12" s="41"/>
+      <c r="Z12" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="AA12" s="51"/>
-      <c r="AB12" s="51"/>
-      <c r="AC12" s="51"/>
-      <c r="AD12" s="51"/>
-      <c r="AE12" s="51"/>
-      <c r="AF12" s="51"/>
-      <c r="AG12" s="51"/>
-      <c r="AH12" s="52"/>
+      <c r="AA12" s="52"/>
+      <c r="AB12" s="52"/>
+      <c r="AC12" s="52"/>
+      <c r="AD12" s="52"/>
+      <c r="AE12" s="52"/>
+      <c r="AF12" s="52"/>
+      <c r="AG12" s="52"/>
+      <c r="AH12" s="53"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="41"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="43"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="42"/>
-      <c r="M13" s="42"/>
-      <c r="N13" s="42"/>
-      <c r="O13" s="42"/>
-      <c r="P13" s="42"/>
-      <c r="Q13" s="42"/>
-      <c r="R13" s="42"/>
-      <c r="S13" s="42"/>
-      <c r="T13" s="42"/>
-      <c r="U13" s="43"/>
-      <c r="Z13" s="39"/>
-      <c r="AH13" s="40"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="44"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="43"/>
+      <c r="N13" s="43"/>
+      <c r="O13" s="43"/>
+      <c r="P13" s="43"/>
+      <c r="Q13" s="43"/>
+      <c r="R13" s="43"/>
+      <c r="S13" s="43"/>
+      <c r="T13" s="43"/>
+      <c r="U13" s="44"/>
+      <c r="Z13" s="40"/>
+      <c r="AH13" s="41"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Z14" s="41"/>
-      <c r="AA14" s="42"/>
-      <c r="AB14" s="42"/>
-      <c r="AC14" s="42"/>
-      <c r="AD14" s="42"/>
-      <c r="AE14" s="42"/>
-      <c r="AF14" s="42"/>
-      <c r="AG14" s="42"/>
-      <c r="AH14" s="43"/>
+      <c r="Z14" s="42"/>
+      <c r="AA14" s="43"/>
+      <c r="AB14" s="43"/>
+      <c r="AC14" s="43"/>
+      <c r="AD14" s="43"/>
+      <c r="AE14" s="43"/>
+      <c r="AF14" s="43"/>
+      <c r="AG14" s="43"/>
+      <c r="AH14" s="44"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F15" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="Z15" s="53" t="s">
+      <c r="Z15" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="AA15" s="54"/>
-      <c r="AB15" s="54"/>
-      <c r="AC15" s="54"/>
-      <c r="AD15" s="54"/>
-      <c r="AE15" s="54"/>
-      <c r="AF15" s="54"/>
-      <c r="AG15" s="54"/>
-      <c r="AH15" s="55"/>
+      <c r="AA15" s="55"/>
+      <c r="AB15" s="55"/>
+      <c r="AC15" s="55"/>
+      <c r="AD15" s="55"/>
+      <c r="AE15" s="55"/>
+      <c r="AF15" s="55"/>
+      <c r="AG15" s="55"/>
+      <c r="AH15" s="56"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="56"/>
-      <c r="Z16" s="39"/>
-      <c r="AH16" s="40"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="57"/>
+      <c r="M16" s="57"/>
+      <c r="N16" s="57"/>
+      <c r="Z16" s="40"/>
+      <c r="AH16" s="41"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F17" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="Z17" s="39"/>
-      <c r="AH17" s="40"/>
+      <c r="Z17" s="40"/>
+      <c r="AH17" s="41"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="56"/>
-      <c r="Z18" s="50" t="s">
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="57"/>
+      <c r="L18" s="57"/>
+      <c r="M18" s="57"/>
+      <c r="N18" s="57"/>
+      <c r="Z18" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="AA18" s="51"/>
-      <c r="AB18" s="51"/>
-      <c r="AC18" s="51"/>
-      <c r="AD18" s="51"/>
-      <c r="AE18" s="51"/>
-      <c r="AF18" s="51"/>
-      <c r="AG18" s="51"/>
-      <c r="AH18" s="52"/>
+      <c r="AA18" s="52"/>
+      <c r="AB18" s="52"/>
+      <c r="AC18" s="52"/>
+      <c r="AD18" s="52"/>
+      <c r="AE18" s="52"/>
+      <c r="AF18" s="52"/>
+      <c r="AG18" s="52"/>
+      <c r="AH18" s="53"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Z19" s="39"/>
-      <c r="AH19" s="40"/>
+      <c r="Z19" s="40"/>
+      <c r="AH19" s="41"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="33" t="s">
+      <c r="C20" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="35"/>
-      <c r="K20" s="36" t="s">
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="36"/>
+      <c r="K20" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="L20" s="37"/>
-      <c r="M20" s="37"/>
-      <c r="N20" s="37"/>
-      <c r="O20" s="37"/>
-      <c r="P20" s="37"/>
-      <c r="Q20" s="37"/>
-      <c r="R20" s="37"/>
-      <c r="S20" s="37"/>
-      <c r="T20" s="37"/>
-      <c r="U20" s="38"/>
-      <c r="Z20" s="39"/>
-      <c r="AH20" s="40"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="38"/>
+      <c r="N20" s="38"/>
+      <c r="O20" s="38"/>
+      <c r="P20" s="38"/>
+      <c r="Q20" s="38"/>
+      <c r="R20" s="38"/>
+      <c r="S20" s="38"/>
+      <c r="T20" s="38"/>
+      <c r="U20" s="39"/>
+      <c r="Z20" s="40"/>
+      <c r="AH20" s="41"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="39"/>
-      <c r="I21" s="40"/>
-      <c r="K21" s="39"/>
-      <c r="U21" s="40"/>
-      <c r="Z21" s="39"/>
-      <c r="AH21" s="40"/>
+      <c r="C21" s="40"/>
+      <c r="I21" s="41"/>
+      <c r="K21" s="40"/>
+      <c r="U21" s="41"/>
+      <c r="Z21" s="40"/>
+      <c r="AH21" s="41"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="39"/>
-      <c r="I22" s="40"/>
-      <c r="K22" s="39"/>
-      <c r="U22" s="40"/>
-      <c r="Z22" s="41"/>
-      <c r="AA22" s="42"/>
-      <c r="AB22" s="42"/>
-      <c r="AC22" s="42"/>
-      <c r="AD22" s="42"/>
-      <c r="AE22" s="42"/>
-      <c r="AF22" s="42"/>
-      <c r="AG22" s="42"/>
-      <c r="AH22" s="43"/>
+      <c r="C22" s="40"/>
+      <c r="I22" s="41"/>
+      <c r="K22" s="40"/>
+      <c r="U22" s="41"/>
+      <c r="Z22" s="42"/>
+      <c r="AA22" s="43"/>
+      <c r="AB22" s="43"/>
+      <c r="AC22" s="43"/>
+      <c r="AD22" s="43"/>
+      <c r="AE22" s="43"/>
+      <c r="AF22" s="43"/>
+      <c r="AG22" s="43"/>
+      <c r="AH22" s="44"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="39"/>
-      <c r="I23" s="40"/>
-      <c r="K23" s="36" t="s">
+      <c r="C23" s="40"/>
+      <c r="I23" s="41"/>
+      <c r="K23" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="L23" s="37"/>
-      <c r="M23" s="37"/>
-      <c r="N23" s="37"/>
-      <c r="O23" s="37"/>
-      <c r="P23" s="37"/>
-      <c r="Q23" s="37"/>
-      <c r="R23" s="37"/>
-      <c r="S23" s="37"/>
-      <c r="T23" s="37"/>
-      <c r="U23" s="38"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="38"/>
+      <c r="N23" s="38"/>
+      <c r="O23" s="38"/>
+      <c r="P23" s="38"/>
+      <c r="Q23" s="38"/>
+      <c r="R23" s="38"/>
+      <c r="S23" s="38"/>
+      <c r="T23" s="38"/>
+      <c r="U23" s="39"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C24" s="39"/>
-      <c r="I24" s="40"/>
-      <c r="K24" s="39"/>
-      <c r="U24" s="40"/>
+      <c r="C24" s="40"/>
+      <c r="I24" s="41"/>
+      <c r="K24" s="40"/>
+      <c r="U24" s="41"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="39"/>
-      <c r="I25" s="40"/>
-      <c r="K25" s="39"/>
-      <c r="U25" s="40"/>
+      <c r="C25" s="40"/>
+      <c r="I25" s="41"/>
+      <c r="K25" s="40"/>
+      <c r="U25" s="41"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="39"/>
-      <c r="I26" s="40"/>
-      <c r="K26" s="39"/>
-      <c r="U26" s="40"/>
+      <c r="C26" s="40"/>
+      <c r="I26" s="41"/>
+      <c r="K26" s="40"/>
+      <c r="U26" s="41"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="39"/>
-      <c r="I27" s="40"/>
-      <c r="K27" s="41"/>
-      <c r="L27" s="42"/>
-      <c r="M27" s="42"/>
-      <c r="N27" s="42"/>
-      <c r="O27" s="42"/>
-      <c r="P27" s="42"/>
-      <c r="Q27" s="42"/>
-      <c r="R27" s="42"/>
-      <c r="S27" s="42"/>
-      <c r="T27" s="42"/>
-      <c r="U27" s="43"/>
+      <c r="C27" s="40"/>
+      <c r="I27" s="41"/>
+      <c r="K27" s="42"/>
+      <c r="L27" s="43"/>
+      <c r="M27" s="43"/>
+      <c r="N27" s="43"/>
+      <c r="O27" s="43"/>
+      <c r="P27" s="43"/>
+      <c r="Q27" s="43"/>
+      <c r="R27" s="43"/>
+      <c r="S27" s="43"/>
+      <c r="T27" s="43"/>
+      <c r="U27" s="44"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="39"/>
-      <c r="I28" s="40"/>
-      <c r="K28" s="44" t="s">
+      <c r="C28" s="40"/>
+      <c r="I28" s="41"/>
+      <c r="K28" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="L28" s="45"/>
-      <c r="M28" s="45"/>
-      <c r="N28" s="45"/>
-      <c r="O28" s="45"/>
-      <c r="P28" s="45"/>
-      <c r="Q28" s="45"/>
-      <c r="R28" s="45"/>
-      <c r="S28" s="45"/>
-      <c r="T28" s="45"/>
-      <c r="U28" s="46"/>
+      <c r="L28" s="46"/>
+      <c r="M28" s="46"/>
+      <c r="N28" s="46"/>
+      <c r="O28" s="46"/>
+      <c r="P28" s="46"/>
+      <c r="Q28" s="46"/>
+      <c r="R28" s="46"/>
+      <c r="S28" s="46"/>
+      <c r="T28" s="46"/>
+      <c r="U28" s="47"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C29" s="39"/>
-      <c r="I29" s="40"/>
-      <c r="K29" s="39"/>
-      <c r="U29" s="40"/>
+      <c r="C29" s="40"/>
+      <c r="I29" s="41"/>
+      <c r="K29" s="40"/>
+      <c r="U29" s="41"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C30" s="41"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="42"/>
-      <c r="I30" s="43"/>
-      <c r="K30" s="41"/>
-      <c r="L30" s="42"/>
-      <c r="M30" s="42"/>
-      <c r="N30" s="42"/>
-      <c r="O30" s="42"/>
-      <c r="P30" s="42"/>
-      <c r="Q30" s="42"/>
-      <c r="R30" s="42"/>
-      <c r="S30" s="42"/>
-      <c r="T30" s="42"/>
-      <c r="U30" s="43"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="44"/>
+      <c r="K30" s="42"/>
+      <c r="L30" s="43"/>
+      <c r="M30" s="43"/>
+      <c r="N30" s="43"/>
+      <c r="O30" s="43"/>
+      <c r="P30" s="43"/>
+      <c r="Q30" s="43"/>
+      <c r="R30" s="43"/>
+      <c r="S30" s="43"/>
+      <c r="T30" s="43"/>
+      <c r="U30" s="44"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2334,109 +2402,109 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+      <selection pane="topLeft" activeCell="F24" activeCellId="0" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.69921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="48.54"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="58" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="58"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
+      <c r="A2" s="59"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="58"/>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
+      <c r="A3" s="59"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="58"/>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
+      <c r="A4" s="59"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="58"/>
-      <c r="B5" s="58"/>
-      <c r="C5" s="58"/>
+      <c r="A5" s="59"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="58"/>
-      <c r="B6" s="58"/>
-      <c r="C6" s="58"/>
+      <c r="A6" s="59"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="58"/>
-      <c r="B7" s="58"/>
-      <c r="C7" s="58"/>
+      <c r="A7" s="59"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="59"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="58"/>
-      <c r="B8" s="58"/>
-      <c r="C8" s="58"/>
+      <c r="A8" s="59"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="59"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="58"/>
-      <c r="B9" s="58"/>
-      <c r="C9" s="58"/>
+      <c r="A9" s="59"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="59"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="58"/>
-      <c r="B10" s="58"/>
-      <c r="C10" s="58"/>
+      <c r="A10" s="59"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="59"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="58"/>
-      <c r="B11" s="58"/>
-      <c r="C11" s="58"/>
+      <c r="A11" s="59"/>
+      <c r="B11" s="59"/>
+      <c r="C11" s="59"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="58"/>
-      <c r="B12" s="58"/>
-      <c r="C12" s="58"/>
+      <c r="A12" s="59"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="59"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="58"/>
-      <c r="B13" s="58"/>
-      <c r="C13" s="58"/>
+      <c r="A13" s="59"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="59"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="58"/>
-      <c r="B14" s="58"/>
-      <c r="C14" s="58"/>
+      <c r="A14" s="59"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="59"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="58"/>
-      <c r="B15" s="58"/>
-      <c r="C15" s="58"/>
+      <c r="A15" s="59"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="59"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="58"/>
-      <c r="B16" s="58"/>
-      <c r="C16" s="58"/>
+      <c r="A16" s="59"/>
+      <c r="B16" s="59"/>
+      <c r="C16" s="59"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="58"/>
-      <c r="B17" s="58"/>
-      <c r="C17" s="58"/>
+      <c r="A17" s="59"/>
+      <c r="B17" s="59"/>
+      <c r="C17" s="59"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="58"/>
-      <c r="B18" s="58"/>
-      <c r="C18" s="58"/>
+      <c r="A18" s="59"/>
+      <c r="B18" s="59"/>
+      <c r="C18" s="59"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2457,121 +2525,121 @@
   </sheetPr>
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F16" activeCellId="0" sqref="F16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.69921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="19.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="29.11"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="58" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="58"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
+      <c r="A2" s="59"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="58"/>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
+      <c r="A3" s="59"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="58"/>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
+      <c r="A4" s="59"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="58"/>
-      <c r="B5" s="58"/>
-      <c r="C5" s="58"/>
+      <c r="A5" s="59"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="58"/>
-      <c r="B6" s="58"/>
-      <c r="C6" s="58"/>
+      <c r="A6" s="59"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="58"/>
-      <c r="B7" s="58"/>
-      <c r="C7" s="58"/>
+      <c r="A7" s="59"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="59"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="58"/>
-      <c r="B8" s="58"/>
-      <c r="C8" s="58"/>
+      <c r="A8" s="59"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="59"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="58"/>
-      <c r="B9" s="58"/>
-      <c r="C9" s="58"/>
+      <c r="A9" s="59"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="59"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="58"/>
-      <c r="B10" s="58"/>
-      <c r="C10" s="58"/>
+      <c r="A10" s="59"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="59"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="58"/>
-      <c r="B11" s="58"/>
-      <c r="C11" s="58"/>
+      <c r="A11" s="59"/>
+      <c r="B11" s="59"/>
+      <c r="C11" s="59"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="58"/>
-      <c r="B12" s="58"/>
-      <c r="C12" s="58"/>
+      <c r="A12" s="59"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="59"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="58"/>
-      <c r="B13" s="58"/>
-      <c r="C13" s="58"/>
+      <c r="A13" s="59"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="59"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="58"/>
-      <c r="B14" s="58"/>
-      <c r="C14" s="58"/>
+      <c r="A14" s="59"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="59"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="58"/>
-      <c r="B15" s="58"/>
-      <c r="C15" s="58"/>
+      <c r="A15" s="59"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="59"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="58"/>
-      <c r="B16" s="58"/>
-      <c r="C16" s="58"/>
+      <c r="A16" s="59"/>
+      <c r="B16" s="59"/>
+      <c r="C16" s="59"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="58"/>
-      <c r="B17" s="58"/>
-      <c r="C17" s="58"/>
+      <c r="A17" s="59"/>
+      <c r="B17" s="59"/>
+      <c r="C17" s="59"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="58"/>
-      <c r="B18" s="58"/>
-      <c r="C18" s="58"/>
+      <c r="A18" s="59"/>
+      <c r="B18" s="59"/>
+      <c r="C18" s="59"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="58"/>
-      <c r="B19" s="58"/>
-      <c r="C19" s="58"/>
+      <c r="A19" s="59"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="59"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="58"/>
-      <c r="B20" s="58"/>
-      <c r="C20" s="58"/>
+      <c r="A20" s="59"/>
+      <c r="B20" s="59"/>
+      <c r="C20" s="59"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2590,31 +2658,30 @@
     <tabColor rgb="FFFF0000"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M10"/>
+  <dimension ref="A2:M10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="2.19140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" s="59" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
@@ -2687,127 +2754,127 @@
       <selection pane="topLeft" activeCell="AP24" activeCellId="0" sqref="AP24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="2.19140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="36"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="I3" s="40"/>
+      <c r="I3" s="41"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="39"/>
-      <c r="I4" s="40"/>
-      <c r="P4" s="33" t="s">
+      <c r="B4" s="40"/>
+      <c r="I4" s="41"/>
+      <c r="P4" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="Q4" s="34"/>
-      <c r="R4" s="34"/>
-      <c r="S4" s="34"/>
-      <c r="T4" s="34"/>
-      <c r="U4" s="34"/>
-      <c r="V4" s="34"/>
-      <c r="W4" s="35"/>
+      <c r="Q4" s="35"/>
+      <c r="R4" s="35"/>
+      <c r="S4" s="35"/>
+      <c r="T4" s="35"/>
+      <c r="U4" s="35"/>
+      <c r="V4" s="35"/>
+      <c r="W4" s="36"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="39"/>
-      <c r="I5" s="40"/>
-      <c r="P5" s="39" t="s">
+      <c r="B5" s="40"/>
+      <c r="I5" s="41"/>
+      <c r="P5" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="W5" s="40"/>
+      <c r="W5" s="41"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="39"/>
-      <c r="I6" s="40"/>
-      <c r="P6" s="39"/>
-      <c r="W6" s="40"/>
+      <c r="B6" s="40"/>
+      <c r="I6" s="41"/>
+      <c r="P6" s="40"/>
+      <c r="W6" s="41"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="39"/>
-      <c r="I7" s="40"/>
-      <c r="P7" s="39"/>
-      <c r="W7" s="40"/>
+      <c r="B7" s="40"/>
+      <c r="I7" s="41"/>
+      <c r="P7" s="40"/>
+      <c r="W7" s="41"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="39"/>
-      <c r="I8" s="40"/>
-      <c r="P8" s="39"/>
-      <c r="W8" s="40"/>
+      <c r="B8" s="40"/>
+      <c r="I8" s="41"/>
+      <c r="P8" s="40"/>
+      <c r="W8" s="41"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="39"/>
-      <c r="I9" s="40"/>
-      <c r="P9" s="39"/>
-      <c r="W9" s="40"/>
+      <c r="B9" s="40"/>
+      <c r="I9" s="41"/>
+      <c r="P9" s="40"/>
+      <c r="W9" s="41"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="39"/>
-      <c r="I10" s="40"/>
-      <c r="P10" s="39"/>
-      <c r="W10" s="40"/>
+      <c r="B10" s="40"/>
+      <c r="I10" s="41"/>
+      <c r="P10" s="40"/>
+      <c r="W10" s="41"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="39"/>
-      <c r="I11" s="40"/>
-      <c r="P11" s="39"/>
-      <c r="W11" s="40"/>
+      <c r="B11" s="40"/>
+      <c r="I11" s="41"/>
+      <c r="P11" s="40"/>
+      <c r="W11" s="41"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="39"/>
-      <c r="I12" s="40"/>
-      <c r="P12" s="39"/>
-      <c r="W12" s="40"/>
+      <c r="B12" s="40"/>
+      <c r="I12" s="41"/>
+      <c r="P12" s="40"/>
+      <c r="W12" s="41"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="39"/>
-      <c r="I13" s="40"/>
-      <c r="P13" s="39"/>
-      <c r="W13" s="40"/>
+      <c r="B13" s="40"/>
+      <c r="I13" s="41"/>
+      <c r="P13" s="40"/>
+      <c r="W13" s="41"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="39"/>
-      <c r="I14" s="40"/>
-      <c r="P14" s="39"/>
-      <c r="W14" s="40"/>
+      <c r="B14" s="40"/>
+      <c r="I14" s="41"/>
+      <c r="P14" s="40"/>
+      <c r="W14" s="41"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="41"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="43"/>
-      <c r="P15" s="39"/>
-      <c r="W15" s="40"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="44"/>
+      <c r="P15" s="40"/>
+      <c r="W15" s="41"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P16" s="39"/>
-      <c r="W16" s="40"/>
+      <c r="P16" s="40"/>
+      <c r="W16" s="41"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P17" s="41"/>
-      <c r="Q17" s="42"/>
-      <c r="R17" s="42"/>
-      <c r="S17" s="42"/>
-      <c r="T17" s="42"/>
-      <c r="U17" s="42"/>
-      <c r="V17" s="42"/>
-      <c r="W17" s="43"/>
+      <c r="P17" s="42"/>
+      <c r="Q17" s="43"/>
+      <c r="R17" s="43"/>
+      <c r="S17" s="43"/>
+      <c r="T17" s="43"/>
+      <c r="U17" s="43"/>
+      <c r="V17" s="43"/>
+      <c r="W17" s="44"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2833,7 +2900,7 @@
       <selection pane="topLeft" activeCell="P7" activeCellId="0" sqref="P7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="2.44921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -2858,7 +2925,7 @@
       <selection pane="topLeft" activeCell="B28" activeCellId="0" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.69921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="2.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.91"/>
@@ -3028,7 +3095,7 @@
       <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.69921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.19"/>
   </cols>
@@ -3093,10 +3160,10 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D26" activeCellId="0" sqref="D26"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.69921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.08"/>
@@ -3115,79 +3182,79 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3209,227 +3276,227 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F20" activeCellId="0" sqref="F20"/>
+      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.69921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="2.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="19.35"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="14" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="17"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="17"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="17"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="17"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="17"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="17"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="17"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="17"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="17"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="17"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="17"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
+      <c r="A12" s="18"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="17"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="17"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="17"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="17"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
+      <c r="A16" s="18"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="17"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
+      <c r="A17" s="18"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="17"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
+      <c r="A18" s="18"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="17"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
+      <c r="A19" s="18"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="17"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
+      <c r="A20" s="18"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="17"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
+      <c r="A21" s="18"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="17"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
+      <c r="A22" s="18"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="17"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
+      <c r="A23" s="18"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="17"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
+      <c r="A24" s="18"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="17"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
+      <c r="A25" s="18"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3454,7 +3521,7 @@
       <selection pane="topLeft" activeCell="T8" activeCellId="0" sqref="T8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.1015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="2.109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -3476,10 +3543,10 @@
   <dimension ref="A1:C53"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.69921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.43"/>
@@ -3487,275 +3554,275 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="27" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="27"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="29"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="30"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="27"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="29"/>
+      <c r="A3" s="28"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="30"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="27"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="29"/>
+      <c r="A4" s="28"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="30"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="27"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="29"/>
+      <c r="A5" s="28"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="30"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="27"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="29"/>
+      <c r="A6" s="28"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="30"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="27"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="29"/>
+      <c r="A7" s="28"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="30"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="27"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="29"/>
+      <c r="A8" s="28"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="30"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="27"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="29"/>
+      <c r="A9" s="28"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="30"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="27"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="29"/>
+      <c r="A10" s="28"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="30"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="27"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="29"/>
+      <c r="A11" s="28"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="30"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="27"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="29"/>
+      <c r="A12" s="28"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="30"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="27"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="29"/>
+      <c r="A13" s="28"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="30"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="27"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="29"/>
+      <c r="A14" s="28"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="30"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="27"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="29"/>
+      <c r="A15" s="28"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="30"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="27"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="29"/>
+      <c r="A16" s="28"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="30"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="27"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="29"/>
+      <c r="A17" s="28"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="30"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="27"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="29"/>
+      <c r="A18" s="28"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="30"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="27"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="29"/>
+      <c r="A19" s="28"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="30"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="27"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="29"/>
+      <c r="A20" s="28"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="30"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="27"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="29"/>
+      <c r="A21" s="28"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="30"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="27"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="29"/>
+      <c r="A22" s="28"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="30"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="27"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="29"/>
+      <c r="A23" s="28"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="30"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="27"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="29"/>
+      <c r="A24" s="28"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="30"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="27"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="29"/>
+      <c r="A25" s="28"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="30"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="27"/>
-      <c r="B26" s="28"/>
-      <c r="C26" s="29"/>
+      <c r="A26" s="28"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="30"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="27"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="29"/>
+      <c r="A27" s="28"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="30"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="27"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="29"/>
+      <c r="A28" s="28"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="30"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="27"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="29"/>
+      <c r="A29" s="28"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="30"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="27"/>
-      <c r="B30" s="28"/>
-      <c r="C30" s="29"/>
+      <c r="A30" s="28"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="30"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="27"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="29"/>
+      <c r="A31" s="28"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="30"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="27"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="29"/>
+      <c r="A32" s="28"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="30"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="27"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="29"/>
+      <c r="A33" s="28"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="30"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="27"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="29"/>
+      <c r="A34" s="28"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="30"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="27"/>
-      <c r="B35" s="28"/>
-      <c r="C35" s="29"/>
+      <c r="A35" s="28"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="30"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="27"/>
-      <c r="B36" s="28"/>
-      <c r="C36" s="29"/>
+      <c r="A36" s="28"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="30"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="27"/>
-      <c r="B37" s="28"/>
-      <c r="C37" s="29"/>
+      <c r="A37" s="28"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="30"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="27"/>
-      <c r="B38" s="28"/>
-      <c r="C38" s="29"/>
+      <c r="A38" s="28"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="30"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="27"/>
-      <c r="B39" s="28"/>
-      <c r="C39" s="29"/>
+      <c r="A39" s="28"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="30"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="27"/>
-      <c r="B40" s="28"/>
-      <c r="C40" s="29"/>
+      <c r="A40" s="28"/>
+      <c r="B40" s="29"/>
+      <c r="C40" s="30"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="27"/>
-      <c r="B41" s="28"/>
-      <c r="C41" s="29"/>
+      <c r="A41" s="28"/>
+      <c r="B41" s="29"/>
+      <c r="C41" s="30"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="27"/>
-      <c r="B42" s="28"/>
-      <c r="C42" s="29"/>
+      <c r="A42" s="28"/>
+      <c r="B42" s="29"/>
+      <c r="C42" s="30"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="27"/>
-      <c r="B43" s="28"/>
-      <c r="C43" s="29"/>
+      <c r="A43" s="28"/>
+      <c r="B43" s="29"/>
+      <c r="C43" s="30"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="27"/>
-      <c r="B44" s="28"/>
-      <c r="C44" s="29"/>
+      <c r="A44" s="28"/>
+      <c r="B44" s="29"/>
+      <c r="C44" s="30"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="27"/>
-      <c r="B45" s="28"/>
-      <c r="C45" s="29"/>
+      <c r="A45" s="28"/>
+      <c r="B45" s="29"/>
+      <c r="C45" s="30"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="27"/>
-      <c r="B46" s="28"/>
-      <c r="C46" s="29"/>
+      <c r="A46" s="28"/>
+      <c r="B46" s="29"/>
+      <c r="C46" s="30"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="27"/>
-      <c r="B47" s="28"/>
-      <c r="C47" s="29"/>
+      <c r="A47" s="28"/>
+      <c r="B47" s="29"/>
+      <c r="C47" s="30"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="27"/>
-      <c r="B48" s="28"/>
-      <c r="C48" s="29"/>
+      <c r="A48" s="28"/>
+      <c r="B48" s="29"/>
+      <c r="C48" s="30"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="27"/>
-      <c r="B49" s="28"/>
-      <c r="C49" s="29"/>
+      <c r="A49" s="28"/>
+      <c r="B49" s="29"/>
+      <c r="C49" s="30"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="27"/>
-      <c r="B50" s="28"/>
-      <c r="C50" s="29"/>
+      <c r="A50" s="28"/>
+      <c r="B50" s="29"/>
+      <c r="C50" s="30"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="27"/>
-      <c r="B51" s="28"/>
-      <c r="C51" s="29"/>
+      <c r="A51" s="28"/>
+      <c r="B51" s="29"/>
+      <c r="C51" s="30"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="27"/>
-      <c r="B52" s="28"/>
-      <c r="C52" s="29"/>
+      <c r="A52" s="28"/>
+      <c r="B52" s="29"/>
+      <c r="C52" s="30"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="30"/>
-      <c r="B53" s="31"/>
-      <c r="C53" s="32"/>
+      <c r="A53" s="31"/>
+      <c r="B53" s="32"/>
+      <c r="C53" s="33"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3777,10 +3844,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H11" activeCellId="0" sqref="H11"/>
+      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.1015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="2.109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
